--- a/test_pkg/ffmpeg.xlsx
+++ b/test_pkg/ffmpeg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Desktop\测试结果\4.18测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1076">
   <si>
     <t>CVE ID</t>
   </si>
@@ -2864,1914 +2864,6 @@
   </si>
   <si>
     <t>CVE_2010_3429_PATCHED_COMPLETE_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int row_dec = pic-&gt;linesize[0];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int row_ptr = (avctx-&gt;height - 1) * row_dec;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int frame_size = row_dec * avctx-&gt;height;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    while (row_ptr &gt;= 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (bytestream2_get_bytes_left(gb) &lt;= 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            av_log(avctx, AV_LOG_ERROR,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   "MS RLE: bytestream overrun, %d rows left\n",
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   row_ptr);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return AVERROR_INVALIDDATA;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        rle_code = stream_byte = bytestream2_get_byteu(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (rle_code == 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /* fetch the next byte to see how to handle escape code */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            stream_byte = bytestream2_get_byte(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (stream_byte == 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                /* line is done, goto the next one */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                row_ptr -= row_dec;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                pixel_ptr = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            } else if (stream_byte == 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                /* decode is done */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            } else if (stream_byte == 2) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                /* reposition frame decode coordinates */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                stream_byte = bytestream2_get_byte(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                pixel_ptr += stream_byte;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                row_ptr -= stream_byte * row_dec;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            } else {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                // copy pixels from encoded stream
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                odd_pixel =  stream_byte &amp; 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                rle_code = (stream_byte + 1) / 2;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                extra_byte = rle_code &amp; 0x01;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (row_ptr + pixel_ptr + stream_byte &gt; frame_size ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    bytestream2_get_bytes_left(gb) &lt; rle_code) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    av_log(avctx, AV_LOG_ERROR,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           "MS RLE: frame/stream ptr just went out of bounds (copy)\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    return AVERROR_INVALIDDATA;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                for (i = 0; i &lt; rle_code; i++) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (pixel_ptr &gt;= avctx-&gt;width)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        break;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    stream_byte = bytestream2_get_byteu(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    pic-&gt;data[0][row_ptr + pixel_ptr] = stream_byte &gt;&gt; 4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    pixel_ptr++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (i + 1 == rle_code &amp;&amp; odd_pixel)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    pic-&gt;data[0][row_ptr + pixel_ptr] = stream_byte &amp; 0x0F;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                // if the RLE code is odd, skip a byte in the stream
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (extra_byte)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    bytestream2_skip(gb, 1);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } else {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            // decode a run of data
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (row_ptr + pixel_ptr + stream_byte &gt; frame_size) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_log(avctx, AV_LOG_ERROR,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       "MS RLE: frame ptr just went out of bounds (run)\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return AVERROR_INVALIDDATA;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            for (i = 0; i &lt; rle_code; i++) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (pixel_ptr &gt;= avctx-&gt;width)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    break;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if ((i &amp; 1) == 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                else
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                pixel_ptr++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        avformat_free_context(oc);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            s-&gt;rgb         = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            s-&gt;pegasus_rct = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            s-&gt;pegasus_rct = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (y1 &gt;= height) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    y1 = pass ? 2 : 4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ptr = ptr1 + linesize * y1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    pass++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    y1 = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ptr = ptr1 + linesize;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    unsigned int     x, y;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if ((s-&gt;bit_depth == 2 || s-&gt;bit_depth == 4 || s-&gt;bit_depth == 8) &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    s-&gt;color_type == PNG_COLOR_TYPE_RGB) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_RGB24;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if ((s-&gt;bit_depth == 2 || s-&gt;bit_depth == 4 || s-&gt;bit_depth == 8) &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           s-&gt;color_type == PNG_COLOR_TYPE_RGB_ALPHA) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_RGBA;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           s-&gt;color_type == PNG_COLOR_TYPE_GRAY) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_GRAY8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (s-&gt;bit_depth == 16 &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_GRAY16BE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           s-&gt;color_type == PNG_COLOR_TYPE_RGB) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_RGB48BE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_RGBA64BE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if ((s-&gt;bits_per_pixel == 1 || s-&gt;bits_per_pixel == 2 || s-&gt;bits_per_pixel == 4 || s-&gt;bits_per_pixel == 8) &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           s-&gt;color_type == PNG_COLOR_TYPE_PALETTE) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_PAL8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (s-&gt;bit_depth == 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_MONOBLACK;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (s-&gt;bit_depth == 8 &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           s-&gt;color_type == PNG_COLOR_TYPE_GRAY_ALPHA) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_YA8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    avctx-&gt;pix_fmt = AV_PIX_FMT_YA16BE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    av_log(avctx, AV_LOG_ERROR, "unsupported bit depth %d "
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                "and color type %d\n",
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                 s-&gt;bit_depth, s-&gt;color_type);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    goto fail;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        s-&gt;bppcount = count;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (count &gt; 4) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            av_log(s-&gt;avctx, AV_LOG_ERROR,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   "This format is not supported (bpp=%d, %d components)\n",
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   s-&gt;bpp, count);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (half_vert)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int len, nb_components, i, width, height, pix_fmt_id, ret;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s-&gt;bits = get_bits(&amp;s-&gt;gb, 8);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        s-&gt;bits = 9;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (s-&gt;bits == 9 &amp;&amp; !s-&gt;pegasus_rct)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (s-&gt;ls &amp;&amp; !(s-&gt;bits &lt;= 8 || nb_components == 1)) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        avpriv_report_missing_feature(s-&gt;avctx,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      "JPEG-LS that is not &lt;= 8 "
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      "bits/component or 16-bit gray");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return AVERROR_PATCHWELCOME;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           vorbis_residue *vr,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           uint8_t *do_not_decode,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           unsigned ch_used,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           int partition_count)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (i &lt; vr-&gt;ptns_to_read)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        p += vr-&gt;ptns_to_read;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if ((ret = setup_classifs(vc, vr, do_not_decode, ch_used, partition_count)) &lt; 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MatroskaTrack *tracks = matroska-&gt;tracks.elem;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (avctx-&gt;codec_tag == MKTAG('R','G','B','8'))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        else if (avctx-&gt;codec_tag == MKTAG('R','G','B','N'))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    pkt_size = ctx-&gt;frame_size_upper_bound + FF_MIN_BUFFER_SIZE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if ((ret = ff_alloc_packet2(avctx, pkt, pkt_size)) &lt; 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                encode_slice(avctx, pic, &amp;pb, sizes, x, y, q, mbs_per_slice);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        int linesize = (avctx-&gt;width * avctx-&gt;bits_per_coded_sample + 7) / 8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (s-&gt;ti.bps != avctx-&gt;bits_per_raw_sample) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        avctx-&gt;bits_per_raw_sample = s-&gt;ti.bps;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if ((ret = set_bps_params(avctx)) &lt; 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return ret;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            line = picture-&gt;data[plane] + y * picture-&gt;linesize[plane];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                dst = line + x * pixelsize + compno*!planar;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            linel = (uint16_t *)picture-&gt;data[plane] + y * (picture-&gt;linesize[plane] &gt;&gt; 1);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                dst = linel + (x * pixelsize + compno*!planar);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if(!new_buffer)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        c-&gt;framebuf_stride = FFALIGN(c-&gt;width * 3, 16);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        aligned_height     = FFALIGN(c-&gt;height,    16);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (buf-&gt;pts == AV_NOPTS_VALUE) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return write_to_fifo(s-&gt;fifo, buf);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (c-&gt;nreslevels &lt; s-&gt;reduction_factor)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        c-&gt;nreslevels2decode = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    else
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        c-&gt;nreslevels2decode = c-&gt;nreslevels - s-&gt;reduction_factor;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reslevel-&gt;band = av_malloc_array(reslevel-&gt;nbands, sizeof(*reslevel-&gt;band)); 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            band-&gt;prec = av_malloc_array(reslevel-&gt;num_precincts_x * 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                         (uint64_t)reslevel-&gt;num_precincts_y, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                         sizeof(*band-&gt;prec)); 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Jpeg2000Prec *prec = band-&gt;prec + precno; 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_freep(&amp;prec-&gt;zerobits); 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_freep(&amp;prec-&gt;cblkincl); 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_freep(&amp;prec-&gt;cblk); 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (i = 0; i &lt;= w - sizeof(long); i += sizeof(long)) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        long a = *(long *)(src1 + i);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        long b = *(long *)(src2 + i);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        *(long *)(dst + i) = ((a &amp; pb_7f) + (b &amp; pb_7f)) ^ ((a ^ b) &amp; pb_80);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        c-&gt;tile_stride = FFALIGN(c-&gt;tile_width * 3, 16);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        f-&gt;chroma_planes  = get_rac(c, state);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        f-&gt;chroma_h_shift = get_symbol(c, state, 0);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        f-&gt;chroma_v_shift = get_symbol(c, state, 0);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        f-&gt;transparency   = get_rac(c, state);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for(i=0; i&lt;=w-sizeof(long); i+=sizeof(long)){
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        long a = *(long*)(src+i);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        long b = *(long*)(dst+i);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        *(long*)(dst+i) = ((a&amp;pb_7f) + (b&amp;pb_7f)) ^ ((a^b)&amp;pb_80);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int pixel_ptr = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ADVANCE_BLOCK();
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ADVANCE_BLOCK();
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (!last_pic_droppable &amp;&amp; h0-&gt;cur_pic_ptr-&gt;tf.owner == h0-&gt;avctx) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ff_thread_report_progress(&amp;h0-&gt;cur_pic_ptr-&gt;tf, INT_MAX,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                          last_pic_structure == PICT_BOTTOM_FIELD);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (!last_pic_droppable &amp;&amp; last_pic_structure != PICT_FRAME) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ff_thread_report_progress(&amp;h0-&gt;cur_pic_ptr-&gt;tf, INT_MAX,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                              last_pic_structure == PICT_TOP_FIELD);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (!last_pic_droppable &amp;&amp; last_pic_structure != PICT_FRAME) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (!*ptrptr &amp;&amp; !(nmemb &amp;&amp; size))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (src_end - src &lt; zsize)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bytestream_get_buffer(&amp;buf, cdg_data, buf_size - CDG_HEADER_SIZE);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if(type) type[0] = get_category(((uint8_t *) ptr) + avc-&gt;parent_log_context_offset);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int i, l;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (dest_end - pd &lt; i || ps_end - ps &lt; 2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            for (i = 0; i &lt; l; i++) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                *pd++ = ps[0];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                *pd++ = ps[1];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (avctx-&gt;internal-&gt;skip_samples) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if(frame-&gt;nb_samples &lt;= avctx-&gt;internal-&gt;skip_samples){
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                *got_frame_ptr = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                avctx-&gt;internal-&gt;skip_samples -= frame-&gt;nb_samples;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_log(avctx, AV_LOG_DEBUG, "skip whole frame, skip left: %d\n",
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       avctx-&gt;internal-&gt;skip_samples);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_samples_copy(frame-&gt;extended_data, frame-&gt;extended_data, 0, avctx-&gt;internal-&gt;skip_samples,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                frame-&gt;nb_samples - avctx-&gt;internal-&gt;skip_samples, avctx-&gt;channels, frame-&gt;format);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if(avctx-&gt;pkt_timebase.num &amp;&amp; avctx-&gt;sample_rate) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    int64_t diff_ts = av_rescale_q(avctx-&gt;internal-&gt;skip_samples,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                   (AVRational){1, avctx-&gt;sample_rate},
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                   avctx-&gt;pkt_timebase);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if(frame-&gt;pkt_pts!=AV_NOPTS_VALUE)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        frame-&gt;pkt_pts += diff_ts;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if(frame-&gt;pkt_dts!=AV_NOPTS_VALUE)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        frame-&gt;pkt_dts += diff_ts;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (frame-&gt;pkt_duration &gt;= diff_ts)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        frame-&gt;pkt_duration -= diff_ts;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    av_log(avctx, AV_LOG_WARNING, "Could not update timestamps for skipped samples.\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_log(avctx, AV_LOG_DEBUG, "skip %d/%d samples\n",
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       avctx-&gt;internal-&gt;skip_samples, frame-&gt;nb_samples);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                frame-&gt;nb_samples -= avctx-&gt;internal-&gt;skip_samples;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                avctx-&gt;internal-&gt;skip_samples = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (*y) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return start + *y * stride;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return NULL;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (!FIELD_PICTURE &amp;&amp; h-&gt;current_slice)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if(limit &lt;= 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (len1 &gt; limit)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (limit0 &lt; 2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (limit1 &lt; 1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (len2 &gt; limit1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        init_vlc(&amp;s-&gt;vlc[i], VLC_BITS, 256, s-&gt;len[i], 1, 1,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 s-&gt;bits[i], 4, 4, 0);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    const uint32_t *src_pb = src_py + t * linesize;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ctx-&gt;avctx-&gt;width  = FFMAX(left + w, ctx-&gt;width);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ctx-&gt;avctx-&gt;height = FFMAX(top + h, ctx-&gt;height);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    channels = av_get_channel_layout_nb_channels(frame-&gt;channel_layout);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (count &gt;= INT_MAX / sizeof(int64_t))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (i = 1; i &lt;= lpc_order; i++)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int buf_size = alac-&gt;max_samples_per_frame * sizeof(int32_t);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s-&gt;frame.nb_samples = s-&gt;samples;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (buf_size &lt; 17) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        av_log(avctx, AV_LOG_ERROR, "Input buffer too small\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        *data_size = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                max[1] = 31;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        read_const_block_data(ctx, bd);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        for (n = nb_samples &gt;&gt; (1 - st); n &gt; 0; n--) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            int v = bytestream2_get_byteu(&amp;gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            *samples++ = adpcm_ima_expand_nibble(&amp;c-&gt;status[0 ], v &gt;&gt; 4  , 3);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            *samples++ = adpcm_ima_expand_nibble(&amp;c-&gt;status[st], v &amp; 0x0F, 3);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int ret = 0, probe_size;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        pd.buf_size += ret;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    end = ptr + FFMAX(2 + AV_RB16(ptr), avpkt-&gt;size);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    while (*buf) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (text &amp;&amp; callbacks-&gt;text &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            (sscanf(buf, "\\%1[nN]", new_line) == 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             !strncmp(buf, "{\\", 2))) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            callbacks-&gt;text(priv, text, text_len);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            text = NULL;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (sscanf(buf, "\\%1[nN]", new_line) == 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (callbacks-&gt;new_line)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                callbacks-&gt;new_line(priv, new_line[0] == 'N');
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            buf += 2;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } else if (!strncmp(buf, "{\\", 2)) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            buf++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            while (*buf == '\\') {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                char style[2], c[2], sep[2], c_num[2] = "0", tmp[128] = {0};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                unsigned int color = 0xFFFFFFFF;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                int len, size = -1, an = -1, alpha = -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                int x1, y1, x2, y2, t1 = -1, t2 = -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (sscanf(buf, "\\%1[bisu]%1[01\\}]%n", style, c, &amp;len) &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    int close = c[0] == '0' ? 1 : c[0] == '1' ? 0 : -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    len += close != -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;style)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;style(priv, style[0], close);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\c%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\c&amp;H%X&amp;%1[\\}]%n", &amp;color, sep, &amp;len) &gt; 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\%1[1234]c%1[\\}]%n", c_num, sep, &amp;len) &gt; 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\%1[1234]c&amp;H%X&amp;%1[\\}]%n", c_num, &amp;color, sep, &amp;len) &gt; 2) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;color)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;color(priv, color, c_num[0] - '0');
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\alpha%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\alpha&amp;H%2X&amp;%1[\\}]%n", &amp;alpha, sep, &amp;len) &gt; 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\%1[1234]a%1[\\}]%n", c_num, sep, &amp;len) &gt; 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\%1[1234]a&amp;H%2X&amp;%1[\\}]%n", c_num, &amp;alpha, sep, &amp;len) &gt; 2) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;alpha)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;alpha(priv, alpha, c_num[0] - '0');
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\fn%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\fn%127[^\\}]%1[\\}]%n", tmp, sep, &amp;len) &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;font_name)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;font_name(priv, tmp[0] ? tmp : NULL);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\fs%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\fs%u%1[\\}]%n", &amp;size, sep, &amp;len) &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;font_size)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;font_size(priv, size);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\a%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\a%2u%1[\\}]%n", &amp;an, sep, &amp;len) &gt; 1 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\an%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\an%1u%1[\\}]%n", &amp;an, sep, &amp;len) &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (an != -1 &amp;&amp; buf[2] != 'n')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        an = (an&amp;3) + (an&amp;4 ? 6 : an&amp;8 ? 3 : 0);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;alignment)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;alignment(priv, an);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\r%1[\\}]%n", sep, &amp;len) &gt; 0 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\r%127[^\\}]%1[\\}]%n", tmp, sep, &amp;len) &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;cancel_overrides)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;cancel_overrides(priv, tmp);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\move(%d,%d,%d,%d)%1[\\}]%n", &amp;x1, &amp;y1, &amp;x2, &amp;y2, sep, &amp;len) &gt; 4 ||
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           sscanf(buf, "\\move(%d,%d,%d,%d,%d,%d)%1[\\}]%n", &amp;x1, &amp;y1, &amp;x2, &amp;y2, &amp;t1, &amp;t2, sep, &amp;len) &gt; 6) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;move)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;move(priv, x1, y1, x2, y2, t1, t2);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\pos(%d,%d)%1[\\}]%n", &amp;x1, &amp;y1, sep, &amp;len) &gt; 2) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;move(priv, x1, y1, x1, y1, -1, -1);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (sscanf(buf, "\\org(%d,%d)%1[\\}]%n", &amp;x1, &amp;y1, sep, &amp;len) &gt; 2) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (callbacks-&gt;origin)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        callbacks-&gt;origin(priv, x1, y1);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    len = strcspn(buf+1, "\\}") + 2;  /* skip unknown code */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                buf += len - 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (*buf++ != '}')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (!text) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                text = buf;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                text_len = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            } else
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                text_len++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (text &amp;&amp; callbacks-&gt;text)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        callbacks-&gt;text(priv, text, text_len);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (callbacks-&gt;end)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        callbacks-&gt;end(priv);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSStyle *ff_ass_style_get(ASSSplitContext *ctx, const char *style)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ASS *ass = &amp;ctx-&gt;ass;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int i;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (!style || !*style)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        style = "Default";
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (i=0; i&lt;ass-&gt;styles_count; i++)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (!strcmp(ass-&gt;styles[i].name, style))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return ass-&gt;styles + i;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return NULL;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s-&gt;frame-&gt;nb_samples = MPA_FRAME_SIZE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ff_bgmc_decode(gb, sb_length, current_res,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        delta[sb], sx[sb], &amp;high, &amp;low, &amp;value, ctx-&gt;bgmc_lut, ctx-&gt;bgmc_lut_status);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            current_res += sb_length;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (s-&gt;framep[VP56_FRAME_GOLDEN]-&gt;data[0] &amp;&amp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                s-&gt;framep[VP56_FRAME_GOLDEN] != s-&gt;framep[VP56_FRAME_GOLDEN2])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (result) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        av_log(avctx, AV_LOG_ERROR,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               "Error while decoding picture header: %d\n", result);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (y = 0; y &lt; cell-&gt;height; is_first_row = 0, y += 1 + v_zoom) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        for (x = 0; x &lt; cell-&gt;width; x += 1 + h_zoom) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ref = ref_block;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            dst = block;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (rle_blocks &gt; 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (mode &lt;= 4) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    RLE_BLOCK_COPY;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                } else if (mode == 10 &amp;&amp; !cell-&gt;mv_ptr) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    RLE_BLOCK_COPY_8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                rle_blocks--;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                for (line = 0; line &lt; 4;) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    num_lines = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    is_top_of_cell = is_first_row &amp;&amp; !line;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    /* select primary VQ table for odd, secondary for even lines */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (mode &lt;= 4)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        delta_tab = delta[line &amp; 1];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    else
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        delta_tab = delta[1];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    BUFFER_PRECHECK;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    code = bytestream_get_byte(data_ptr);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (code &lt; 248) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        if (code &lt; delta_tab-&gt;num_dyads) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            BUFFER_PRECHECK;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            dyad1 = bytestream_get_byte(data_ptr);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            dyad2 = code;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (dyad1 &gt;= delta_tab-&gt;num_dyads || dyad1 &gt;= 248)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                return IV3_BAD_DATA;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        } else {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            /* process QUADS */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            code -= delta_tab-&gt;num_dyads;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            dyad1 = code / delta_tab-&gt;quad_exp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            dyad2 = code % delta_tab-&gt;quad_exp;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (swap_quads[line &amp; 1])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                FFSWAP(unsigned int, dyad1, dyad2);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        if (mode &lt;= 4) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            APPLY_DELTA_4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        } else if (mode == 10 &amp;&amp; !cell-&gt;mv_ptr) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            APPLY_DELTA_8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            APPLY_DELTA_1011_INTER;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    } else {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        /* process RLE codes */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        switch (code) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FC:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            skip_flag  = 0;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            rle_blocks = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            code       = 253;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            /* FALLTHROUGH */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FF:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FE:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FD:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            num_lines = 257 - code - line;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (num_lines &lt;= 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                return IV3_BAD_RLE;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (mode &lt;= 4) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                RLE_LINES_COPY;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            } else if (mode == 10 &amp;&amp; !cell-&gt;mv_ptr) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                RLE_LINES_COPY_M10;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            break;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FB:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            code = bytestream_get_byte(data_ptr);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            rle_blocks = (code &amp; 0x1F) - 1; /* set block counter */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (code &gt;= 64 || rle_blocks &lt; 0)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                return IV3_BAD_COUNTER;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            skip_flag = code &amp; 0x20;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            num_lines = 4 - line; /* enforce next block processing */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (mode &gt;= 10 || (cell-&gt;mv_ptr || !skip_flag)) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                if (mode &lt;= 4) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    RLE_LINES_COPY;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                } else if (mode == 10 &amp;&amp; !cell-&gt;mv_ptr) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    RLE_LINES_COPY_M10;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_F9:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            skip_flag  = 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        case RLE_ESC_FA:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (line)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            num_lines = 4; /* enforce next block processing */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            if (cell-&gt;mv_ptr) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        default:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            return IV3_UNSUPPORTED;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    line += num_lines;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ref  += row_offset * (num_lines &lt;&lt; v_zoom);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    dst  += row_offset * (num_lines &lt;&lt; v_zoom);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /* move to next horizontal block */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            block     += 4 &lt;&lt; h_zoom;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ref_block += 4 &lt;&lt; h_zoom;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        /* move to next line of blocks */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ref_block += blk_row_offset;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        block     += blk_row_offset;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (*v_off == 0) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            int saved_samples = (1280 - 128) &gt;&gt; div;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            memcpy(&amp;v0[SBR_SYNTHESIS_BUF_SIZE - saved_samples], v0, saved_samples * sizeof(float));
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            *v_off = SBR_SYNTHESIS_BUF_SIZE - saved_samples - (128 &gt;&gt; div);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            *v_off -= 128 &gt;&gt; div;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (decomp_levels &gt;= FF_DWT_MAX_DECLVLS)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if(level_code &gt;= ESCAPE_CODE) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            run = ((level_code - ESCAPE_CODE) &gt;&gt; 1) + 1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            esc_code = get_ue_code(gb,esc_golomb_order);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            level = esc_code + (run &gt; r-&gt;max_run ? 1 : r-&gt;level_add[run]);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            while(level &gt; r-&gt;inc_limit)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                r++;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            mask = -(level_code &amp; 1);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            level = (level^mask) - mask;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            level = r-&gt;rltab[level_code][0];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if(!level) //end of block signal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                break;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            run   = r-&gt;rltab[level_code][1];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            r += r-&gt;rltab[level_code][2];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int block, pred_mode_uv;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if(stc &amp; 0xFFFFFE00)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        s-&gt;num_refs    =  parse_code &amp; 0x03;                   /* [DIRAC_STD] num_refs()      */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s-&gt;wavelet_idx = svq3_get_ue_golomb(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (s-&gt;wavelet_idx &gt; 6)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s-&gt;wavelet_depth = svq3_get_ue_golomb(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (s-&gt;wavelet_depth &gt; MAX_DWT_LEVELS) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        av_log(s-&gt;avctx, AV_LOG_ERROR, "too many dwt decompositions\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                s-&gt;codeblock[i].width  = svq3_get_ue_golomb(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                s-&gt;codeblock[i].height = svq3_get_ue_golomb(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            s-&gt;codeblock_mode = svq3_get_ue_golomb(gb);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (s-&gt;codeblock_mode &gt; 1) {
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                av_log(s-&gt;avctx, AV_LOG_ERROR, "unknown codeblock mode\n");
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return -1;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int offsets[7];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (i = 0; i &lt; 7; i++)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    pcm  = ppcm[ipcm++];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        /* next stereo channel (50Mbps and 100Mbps only) */
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        pcm = ppcm[ipcm++];
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (!pcm)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            break;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            copy_fields(s, s1, golden_frame, current_frame);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    dv_extract_audio(buf, ppcm, c-&gt;sys);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int i, level_code, esc_code, level, run, mask;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int pixel_limit;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    pixels[y_ptr + s-&gt;frame.linesize[0] - 1] = line_packets &amp; 0xff;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            CHECK_PIXEL_PTR(byte_run);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        CHECK_PIXEL_PTR(byte_run);
-</t>
   </si>
   <si>
     <t>MINUS1</t>
@@ -5502,7 +3594,7 @@
   </sheetPr>
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -10220,10 +8312,14 @@
   </sheetPr>
   <dimension ref="A1:E355"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10275,7 +8371,7 @@
         <v>570</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -16214,7 +14310,7 @@
         <v>557</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1552</v>
+        <v>1075</v>
       </c>
       <c r="C355" s="1">
         <v>8</v>
@@ -16230,7 +14326,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -16251,9 +14347,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -18156,2711 +16252,1141 @@
   </sheetPr>
   <dimension ref="A1:DO172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:IV65536"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>582</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>583</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>954</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>963</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>983</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>992</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>996</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>992</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>599</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>602</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>605</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>607</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>611</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1013</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>615</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>983</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1020</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>983</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1052</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1053</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1054</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1057</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1066</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1067</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1068</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1069</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1070</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1072</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>655</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1074</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1075</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1076</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1084</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1085</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1085</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>681</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1094</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1097</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>1101</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1106</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>697</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>699</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>1110</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1115</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>711</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>715</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>719</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1117</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>996</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>983</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>983</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1125</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1126</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>739</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1128</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>996</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>749</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>751</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="Y82" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="Z82" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AA82" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB82" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC82" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>757</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>759</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>761</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1160</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1162</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1165</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>770</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1167</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>775</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1167</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>780</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>784</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>786</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1168</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>790</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1170</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1171</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>796</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1172</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1173</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1174</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>804</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1175</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>808</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1180</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>814</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>816</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>818</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>821</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1181</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1186</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1187</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1188</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S120" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="T120" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="U120" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="V120" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="W120" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="X120" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Y120" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="Z120" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AA120" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AB120" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AC120" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AD120" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AE120" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AF120" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AG120" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AH120" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AI120" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AJ120" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AK120" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AL120" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AM120" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AN120" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AO120" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AP120" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AQ120" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AR120" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AS120" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AT120" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AU120" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AV120" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AW120" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AX120" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AY120" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AZ120" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="BA120" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="BB120" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="BC120" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="BD120" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="BE120" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BF120" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="BG120" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="BH120" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="BI120" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="BJ120" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="BK120" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="BL120" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="BM120" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="BN120" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="BO120" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="BP120" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="BQ120" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="BR120" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="BS120" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="BT120" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BU120" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BV120" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BW120" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="BX120" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="BY120" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="BZ120" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="CA120" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="CB120" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="CC120" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="CD120" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="CE120" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="CF120" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="CG120" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="CH120" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="CI120" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="CJ120" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="CK120" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="CL120" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="CM120" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="CN120" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="CO120" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="CP120" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="CQ120" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="CR120" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="CS120" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="CT120" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="CU120" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="CV120" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="CW120" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="CX120" s="1" t="s">
-        <v>1276</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
+      <c r="BD120" s="1"/>
+      <c r="BE120" s="1"/>
+      <c r="BF120" s="1"/>
+      <c r="BG120" s="1"/>
+      <c r="BH120" s="1"/>
+      <c r="BI120" s="1"/>
+      <c r="BJ120" s="1"/>
+      <c r="BK120" s="1"/>
+      <c r="BL120" s="1"/>
+      <c r="BM120" s="1"/>
+      <c r="BN120" s="1"/>
+      <c r="BO120" s="1"/>
+      <c r="BP120" s="1"/>
+      <c r="BQ120" s="1"/>
+      <c r="BR120" s="1"/>
+      <c r="BS120" s="1"/>
+      <c r="BT120" s="1"/>
+      <c r="BU120" s="1"/>
+      <c r="BV120" s="1"/>
+      <c r="BW120" s="1"/>
+      <c r="BX120" s="1"/>
+      <c r="BY120" s="1"/>
+      <c r="BZ120" s="1"/>
+      <c r="CA120" s="1"/>
+      <c r="CB120" s="1"/>
+      <c r="CC120" s="1"/>
+      <c r="CD120" s="1"/>
+      <c r="CE120" s="1"/>
+      <c r="CF120" s="1"/>
+      <c r="CG120" s="1"/>
+      <c r="CH120" s="1"/>
+      <c r="CI120" s="1"/>
+      <c r="CJ120" s="1"/>
+      <c r="CK120" s="1"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
+      <c r="CT120" s="1"/>
+      <c r="CU120" s="1"/>
+      <c r="CV120" s="1"/>
+      <c r="CW120" s="1"/>
+      <c r="CX120" s="1"/>
     </row>
     <row r="121" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>836</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>838</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>840</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>842</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1277</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>846</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>848</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>850</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>852</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>1280</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>857</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>859</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>861</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>1282</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>865</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="R137" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="T137" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="U137" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V137" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="W137" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="X137" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Y137" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="Z137" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AA137" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="AB137" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AC137" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AD137" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AE137" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AF137" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AG137" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AH137" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AI137" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AJ137" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AK137" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AL137" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AM137" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AN137" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AO137" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AP137" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AQ137" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AR137" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AS137" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AT137" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AU137" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AV137" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="AW137" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AX137" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AY137" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AZ137" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="BA137" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="BB137" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="BC137" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="BD137" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="BE137" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="BF137" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="BG137" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="BH137" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BI137" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="BJ137" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="BK137" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="BL137" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="BM137" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="BN137" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="BO137" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="BP137" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="BQ137" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="BR137" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="BS137" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="BT137" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="BU137" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="BV137" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="BW137" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="BX137" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="BY137" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="BZ137" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="CA137" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="CB137" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="CC137" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="CD137" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="CE137" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="CF137" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="CG137" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="CH137" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="CI137" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="CJ137" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="CK137" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="CL137" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="CM137" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="CN137" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="CO137" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="CP137" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="CQ137" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="CR137" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="CS137" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="CT137" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="CU137" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="CV137" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="CW137" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="CX137" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="CY137" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="CZ137" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="DA137" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="DB137" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="DC137" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="DD137" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="DE137" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="DF137" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="DG137" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="DH137" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="DI137" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="DJ137" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="DK137" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="DL137" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="DM137" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="DN137" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="DO137" s="1" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
+      <c r="AP137" s="1"/>
+      <c r="AQ137" s="1"/>
+      <c r="AR137" s="1"/>
+      <c r="AS137" s="1"/>
+      <c r="AT137" s="1"/>
+      <c r="AU137" s="1"/>
+      <c r="AV137" s="1"/>
+      <c r="AW137" s="1"/>
+      <c r="AX137" s="1"/>
+      <c r="AY137" s="1"/>
+      <c r="AZ137" s="1"/>
+      <c r="BA137" s="1"/>
+      <c r="BB137" s="1"/>
+      <c r="BC137" s="1"/>
+      <c r="BD137" s="1"/>
+      <c r="BE137" s="1"/>
+      <c r="BF137" s="1"/>
+      <c r="BG137" s="1"/>
+      <c r="BH137" s="1"/>
+      <c r="BI137" s="1"/>
+      <c r="BJ137" s="1"/>
+      <c r="BK137" s="1"/>
+      <c r="BL137" s="1"/>
+      <c r="BM137" s="1"/>
+      <c r="BN137" s="1"/>
+      <c r="BO137" s="1"/>
+      <c r="BP137" s="1"/>
+      <c r="BQ137" s="1"/>
+      <c r="BR137" s="1"/>
+      <c r="BS137" s="1"/>
+      <c r="BT137" s="1"/>
+      <c r="BU137" s="1"/>
+      <c r="BV137" s="1"/>
+      <c r="BW137" s="1"/>
+      <c r="BX137" s="1"/>
+      <c r="BY137" s="1"/>
+      <c r="BZ137" s="1"/>
+      <c r="CA137" s="1"/>
+      <c r="CB137" s="1"/>
+      <c r="CC137" s="1"/>
+      <c r="CD137" s="1"/>
+      <c r="CE137" s="1"/>
+      <c r="CF137" s="1"/>
+      <c r="CG137" s="1"/>
+      <c r="CH137" s="1"/>
+      <c r="CI137" s="1"/>
+      <c r="CJ137" s="1"/>
+      <c r="CK137" s="1"/>
+      <c r="CL137" s="1"/>
+      <c r="CM137" s="1"/>
+      <c r="CN137" s="1"/>
+      <c r="CO137" s="1"/>
+      <c r="CP137" s="1"/>
+      <c r="CQ137" s="1"/>
+      <c r="CR137" s="1"/>
+      <c r="CS137" s="1"/>
+      <c r="CT137" s="1"/>
+      <c r="CU137" s="1"/>
+      <c r="CV137" s="1"/>
+      <c r="CW137" s="1"/>
+      <c r="CX137" s="1"/>
+      <c r="CY137" s="1"/>
+      <c r="CZ137" s="1"/>
+      <c r="DA137" s="1"/>
+      <c r="DB137" s="1"/>
+      <c r="DC137" s="1"/>
+      <c r="DD137" s="1"/>
+      <c r="DE137" s="1"/>
+      <c r="DF137" s="1"/>
+      <c r="DG137" s="1"/>
+      <c r="DH137" s="1"/>
+      <c r="DI137" s="1"/>
+      <c r="DJ137" s="1"/>
+      <c r="DK137" s="1"/>
+      <c r="DL137" s="1"/>
+      <c r="DM137" s="1"/>
+      <c r="DN137" s="1"/>
+      <c r="DO137" s="1"/>
     </row>
     <row r="138" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>872</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>874</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>876</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1382</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>882</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>884</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>886</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="N146" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1396</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>893</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>1397</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>899</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1398</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>903</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>996</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>907</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1410</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>1411</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>913</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>915</v>
-      </c>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1412</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>1416</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>1417</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>1418</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1419</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1420</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>1421</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>1422</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>934</v>
-      </c>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>1420</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>939</v>
-      </c>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1422</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>1423</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>1423</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -20881,7 +17407,7 @@
   </sheetPr>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -20896,13 +17422,13 @@
         <v>582</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1424</v>
+        <v>947</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1425</v>
+        <v>948</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1426</v>
+        <v>949</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -20915,13 +17441,13 @@
         <v>585</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1427</v>
+        <v>950</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1428</v>
+        <v>951</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1429</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20929,7 +17455,7 @@
         <v>587</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1430</v>
+        <v>953</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -20937,10 +17463,10 @@
         <v>589</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1431</v>
+        <v>954</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1432</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -20948,10 +17474,10 @@
         <v>591</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1433</v>
+        <v>956</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1434</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -20959,7 +17485,7 @@
         <v>593</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1435</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -20967,10 +17493,10 @@
         <v>595</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1436</v>
+        <v>959</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1437</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -20978,7 +17504,7 @@
         <v>597</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1438</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -21016,10 +17542,10 @@
         <v>613</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1439</v>
+        <v>962</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1440</v>
+        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -21032,10 +17558,10 @@
         <v>617</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1441</v>
+        <v>964</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1442</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -21043,7 +17569,7 @@
         <v>619</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1443</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -21051,7 +17577,7 @@
         <v>621</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1444</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -21059,10 +17585,10 @@
         <v>623</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1445</v>
+        <v>968</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1446</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -21075,7 +17601,7 @@
         <v>627</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1447</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -21088,7 +17614,7 @@
         <v>631</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1448</v>
+        <v>971</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -21096,10 +17622,10 @@
         <v>633</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1449</v>
+        <v>972</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1450</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -21107,7 +17633,7 @@
         <v>635</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1451</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -21120,7 +17646,7 @@
         <v>639</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1452</v>
+        <v>975</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -21128,7 +17654,7 @@
         <v>642</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1453</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -21136,10 +17662,10 @@
         <v>644</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1454</v>
+        <v>977</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1455</v>
+        <v>978</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -21147,7 +17673,7 @@
         <v>646</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1456</v>
+        <v>979</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -21155,7 +17681,7 @@
         <v>649</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1457</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -21168,10 +17694,10 @@
         <v>653</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1458</v>
+        <v>981</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1459</v>
+        <v>982</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -21184,10 +17710,10 @@
         <v>658</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1460</v>
+        <v>983</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1461</v>
+        <v>984</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -21195,7 +17721,7 @@
         <v>661</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1462</v>
+        <v>985</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -21203,7 +17729,7 @@
         <v>663</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1463</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -21211,7 +17737,7 @@
         <v>665</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1464</v>
+        <v>987</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -21219,10 +17745,10 @@
         <v>667</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1465</v>
+        <v>988</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1466</v>
+        <v>989</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -21230,10 +17756,10 @@
         <v>669</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1467</v>
+        <v>990</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1468</v>
+        <v>991</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -21241,7 +17767,7 @@
         <v>671</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1469</v>
+        <v>992</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -21249,7 +17775,7 @@
         <v>673</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1470</v>
+        <v>993</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -21257,7 +17783,7 @@
         <v>675</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1471</v>
+        <v>994</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -21265,7 +17791,7 @@
         <v>677</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1472</v>
+        <v>995</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -21273,7 +17799,7 @@
         <v>679</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1473</v>
+        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -21286,7 +17812,7 @@
         <v>683</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1474</v>
+        <v>997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -21294,7 +17820,7 @@
         <v>686</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1475</v>
+        <v>998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -21302,7 +17828,7 @@
         <v>688</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1476</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -21315,7 +17841,7 @@
         <v>693</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1477</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -21323,7 +17849,7 @@
         <v>695</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1478</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -21341,7 +17867,7 @@
         <v>701</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1479</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -21349,7 +17875,7 @@
         <v>703</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1480</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -21357,7 +17883,7 @@
         <v>706</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1481</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -21365,7 +17891,7 @@
         <v>709</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1482</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -21378,7 +17904,7 @@
         <v>713</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1483</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -21391,7 +17917,7 @@
         <v>717</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1484</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -21404,7 +17930,7 @@
         <v>721</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1485</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -21412,7 +17938,7 @@
         <v>723</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1486</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -21420,7 +17946,7 @@
         <v>725</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1487</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -21428,7 +17954,7 @@
         <v>727</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1488</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -21436,7 +17962,7 @@
         <v>729</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1489</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -21444,7 +17970,7 @@
         <v>731</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1490</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -21462,7 +17988,7 @@
         <v>737</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1491</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -21480,7 +18006,7 @@
         <v>743</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1492</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -21488,7 +18014,7 @@
         <v>745</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1493</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -21496,10 +18022,10 @@
         <v>747</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1494</v>
+        <v>1017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1495</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -21517,7 +18043,7 @@
         <v>753</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1496</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -21525,7 +18051,7 @@
         <v>755</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1497</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -21548,7 +18074,7 @@
         <v>763</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1498</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -21556,10 +18082,10 @@
         <v>765</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1499</v>
+        <v>1022</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1500</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -21567,13 +18093,13 @@
         <v>768</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1501</v>
+        <v>1024</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1502</v>
+        <v>1025</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1503</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -21586,7 +18112,7 @@
         <v>773</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1504</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -21599,7 +18125,7 @@
         <v>778</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1505</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -21627,7 +18153,7 @@
         <v>788</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1506</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -21640,7 +18166,7 @@
         <v>792</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1507</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -21648,7 +18174,7 @@
         <v>794</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1508</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -21661,7 +18187,7 @@
         <v>798</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1509</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -21669,7 +18195,7 @@
         <v>800</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1510</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -21677,7 +18203,7 @@
         <v>802</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1511</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -21690,7 +18216,7 @@
         <v>806</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1512</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -21703,7 +18229,7 @@
         <v>810</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1513</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -21711,7 +18237,7 @@
         <v>812</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1514</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -21739,7 +18265,7 @@
         <v>823</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1515</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -21747,7 +18273,7 @@
         <v>826</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1516</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -21755,7 +18281,7 @@
         <v>828</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1517</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -21763,7 +18289,7 @@
         <v>830</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1518</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -21771,7 +18297,7 @@
         <v>832</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1519</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -21779,7 +18305,7 @@
         <v>834</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1520</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -21807,7 +18333,7 @@
         <v>844</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1521</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -21835,10 +18361,10 @@
         <v>855</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1522</v>
+        <v>1045</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1523</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -21861,7 +18387,7 @@
         <v>863</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1524</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -21874,7 +18400,7 @@
         <v>868</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1525</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -21882,7 +18408,7 @@
         <v>870</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1526</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -21905,7 +18431,7 @@
         <v>878</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1527</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -21913,7 +18439,7 @@
         <v>880</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1528</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -21936,7 +18462,7 @@
         <v>888</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1529</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -21944,7 +18470,7 @@
         <v>890</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1530</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -21957,7 +18483,7 @@
         <v>896</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1531</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -21970,7 +18496,7 @@
         <v>901</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1532</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -21983,16 +18509,16 @@
         <v>905</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1533</v>
+        <v>1056</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1534</v>
+        <v>1057</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1535</v>
+        <v>1058</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1536</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -22005,7 +18531,7 @@
         <v>909</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1537</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -22013,7 +18539,7 @@
         <v>911</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1538</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -22031,7 +18557,7 @@
         <v>917</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1539</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -22039,7 +18565,7 @@
         <v>919</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1540</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -22047,7 +18573,7 @@
         <v>921</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1541</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -22055,7 +18581,7 @@
         <v>923</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1542</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -22063,7 +18589,7 @@
         <v>925</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1543</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -22071,7 +18597,7 @@
         <v>927</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1544</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -22079,7 +18605,7 @@
         <v>930</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1545</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -22087,7 +18613,7 @@
         <v>932</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1546</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -22100,7 +18626,7 @@
         <v>936</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1547</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -22113,10 +18639,10 @@
         <v>941</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1548</v>
+        <v>1071</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1549</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -22124,7 +18650,7 @@
         <v>943</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1550</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -22132,7 +18658,7 @@
         <v>945</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1551</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
